--- a/old_database/crypto/fastqFiles/fastq_159.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_159.xlsx
@@ -37,7 +37,7 @@
     <t>06.01.10</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_159</t>
   </si>
   <si>
     <t>sequence/run_159_samples/s_6_sequence.30C.fasta</t>
